--- a/regions/3/biznes seqtori/zomis mikhedvit.xlsx
+++ b/regions/3/biznes seqtori/zomis mikhedvit.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52D6620-C303-4E3D-9483-1FB9422D0859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -274,6 +275,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -309,6 +327,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,11 +519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -498,7 +533,7 @@
     <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,14 +542,14 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -523,14 +558,14 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="6">
         <v>2006</v>
@@ -577,8 +612,14 @@
       <c r="P5" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q5" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,8 +668,14 @@
       <c r="P6" s="9">
         <v>542.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q6" s="9">
+        <v>637.4</v>
+      </c>
+      <c r="R6" s="9">
+        <v>710.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -677,8 +724,14 @@
       <c r="P7" s="11">
         <v>43.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="11">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="R7" s="11">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -727,8 +780,14 @@
       <c r="P8" s="11">
         <v>173.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="11">
+        <v>138.6</v>
+      </c>
+      <c r="R8" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -777,8 +836,14 @@
       <c r="P9" s="11">
         <v>324.89999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q9" s="11">
+        <v>365</v>
+      </c>
+      <c r="R9" s="11">
+        <v>427.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -787,7 +852,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>2006</v>
@@ -834,8 +899,14 @@
       <c r="P13" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q13" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -884,8 +955,14 @@
       <c r="P14" s="9">
         <v>405</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="9">
+        <v>508.6</v>
+      </c>
+      <c r="R14" s="9">
+        <v>565.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -934,8 +1011,14 @@
       <c r="P15" s="11">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="11">
+        <v>134.1</v>
+      </c>
+      <c r="R15" s="11">
+        <v>168.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>4</v>
       </c>
@@ -984,8 +1067,14 @@
       <c r="P16" s="11">
         <v>162.80000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q16" s="11">
+        <v>130.9</v>
+      </c>
+      <c r="R16" s="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
@@ -1034,8 +1123,14 @@
       <c r="P17" s="11">
         <v>198.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q17" s="11">
+        <v>243.6</v>
+      </c>
+      <c r="R17" s="11">
+        <v>299.60000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,7 +1139,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6">
         <v>2006</v>
@@ -1091,8 +1186,14 @@
       <c r="P21" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q21" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1141,8 +1242,14 @@
       <c r="P22" s="13">
         <v>8121.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="13">
+        <v>8667</v>
+      </c>
+      <c r="R22" s="12">
+        <v>9099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1298,14 @@
       <c r="P23" s="15">
         <v>1025</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="15">
+        <v>940</v>
+      </c>
+      <c r="R23" s="15">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
@@ -1241,8 +1354,14 @@
       <c r="P24" s="15">
         <v>1436</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q24" s="15">
+        <v>1617</v>
+      </c>
+      <c r="R24" s="15">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>5</v>
       </c>
@@ -1291,8 +1410,14 @@
       <c r="P25" s="15">
         <v>5660.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q25" s="15">
+        <v>6110</v>
+      </c>
+      <c r="R25" s="15">
+        <v>6593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1426,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6">
         <v>2006</v>
@@ -1348,8 +1473,14 @@
       <c r="P29" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q29" s="7">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1398,8 +1529,14 @@
       <c r="P30" s="9">
         <v>708.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q30" s="9">
+        <v>763.4</v>
+      </c>
+      <c r="R30" s="9">
+        <v>951.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>3</v>
       </c>
@@ -1448,8 +1585,14 @@
       <c r="P31" s="11">
         <v>983.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q31" s="11">
+        <v>1565</v>
+      </c>
+      <c r="R31" s="11">
+        <v>1433.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>4</v>
       </c>
@@ -1498,8 +1641,14 @@
       <c r="P32" s="11">
         <v>1194.0999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="11">
+        <v>981.9</v>
+      </c>
+      <c r="R32" s="11">
+        <v>1205.5999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>5</v>
       </c>
@@ -1548,8 +1697,14 @@
       <c r="P33" s="11">
         <v>453.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="11">
+        <v>475.5</v>
+      </c>
+      <c r="R33" s="11">
+        <v>738.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
